--- a/模块接口文档.xlsx
+++ b/模块接口文档.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinglong/Documents/研究生/研一上课程/高级计算机系统结构/课程实验/RISC-V 单周期处理器实现/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinglong/Public/project/研究生专业课/高级计算机体系结构/simple_RISC-V_prosscessor_implementation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C5DCE3-CC91-5F4E-9449-E8672B3B308E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409C1737-956F-9E4F-A055-4DF5EA45D514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="500" windowWidth="28240" windowHeight="20140" xr2:uid="{58800DE4-B2CA-3B4D-85C0-0241760F255B}"/>
+    <workbookView xWindow="7600" yWindow="500" windowWidth="28240" windowHeight="20140" xr2:uid="{58800DE4-B2CA-3B4D-85C0-0241760F255B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="133">
   <si>
     <t>接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -442,10 +442,6 @@
   </si>
   <si>
     <t>4'b1010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4'b1111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -886,7 +882,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -899,119 +895,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1327,190 +1308,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C1A7A8-EE04-4544-946C-D1A007087DCB}">
-  <dimension ref="A1:F191"/>
+  <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="190" workbookViewId="0">
+      <selection activeCell="F57" sqref="E57:F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="4" width="10.83203125" style="2"/>
-    <col min="5" max="5" width="10.83203125" style="32"/>
-    <col min="6" max="6" width="24.83203125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="14"/>
+    <col min="6" max="6" width="24.83203125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="32">
         <v>1</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="10">
         <v>0</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17">
-      <c r="A3" s="14"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="27">
+      <c r="A3" s="35"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="11">
         <v>1</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="14"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3">
         <v>32</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="35"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" ht="17" thickBot="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="8">
         <v>32</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="36"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="7">
         <v>32</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="34"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="17" thickBot="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="8">
         <v>32</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" ht="17">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="7">
         <v>32</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="34" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" thickBot="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="8">
         <v>32</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="36" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="7">
         <v>32</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="34" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17">
-      <c r="A11" s="21"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1519,172 +1500,172 @@
       <c r="D11" s="3">
         <v>7</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="35" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17">
-      <c r="A12" s="21"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="3">
         <v>10</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="35" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17">
-      <c r="A13" s="21"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="3">
         <v>5</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="35" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17">
-      <c r="A14" s="21"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="3">
         <v>5</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="35" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17">
-      <c r="A15" s="21"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="35" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" thickBot="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="16" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="8">
         <v>32</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="36" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="7">
         <v>32</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="34" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17">
-      <c r="A18" s="21"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="3">
         <v>32</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="35" t="s">
+      <c r="E18" s="11"/>
+      <c r="F18" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17">
-      <c r="A19" s="21"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="3">
         <v>32</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="35" t="s">
+      <c r="E19" s="11"/>
+      <c r="F19" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17">
-      <c r="A20" s="21"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="27">
         <v>1</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="11">
         <v>0</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17">
-      <c r="A21" s="21"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="27">
+      <c r="A21" s="25"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="11">
         <v>1</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17">
-      <c r="A22" s="21"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="3">
         <v>32</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="35" t="s">
+      <c r="E22" s="11"/>
+      <c r="F22" s="17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17">
-      <c r="A23" s="21"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="25"/>
+      <c r="B23" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1693,1710 +1674,1698 @@
       <c r="D23" s="3">
         <v>32</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="35" t="s">
+      <c r="E23" s="11"/>
+      <c r="F23" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" thickBot="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="16" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="8">
         <v>32</v>
       </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="36" t="s">
+      <c r="E24" s="12"/>
+      <c r="F24" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="31">
         <v>4</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17">
-      <c r="A26" s="21"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="27" t="s">
+      <c r="A26" s="25"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17">
-      <c r="A27" s="21"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="27" t="s">
+      <c r="A27" s="25"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="17" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17">
-      <c r="A28" s="21"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="27" t="s">
+      <c r="A28" s="25"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17">
-      <c r="A29" s="21"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="27" t="s">
+      <c r="A29" s="25"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17">
-      <c r="A30" s="21"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="27" t="s">
+      <c r="A30" s="25"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="35" t="s">
+      <c r="F30" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17">
-      <c r="A31" s="21"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="27" t="s">
+      <c r="A31" s="25"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17">
-      <c r="A32" s="21"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="27" t="s">
+      <c r="A32" s="25"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="35" t="s">
+      <c r="F32" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17">
-      <c r="A33" s="21"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="27" t="s">
+      <c r="A33" s="25"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="35" t="s">
+      <c r="F33" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17">
-      <c r="A34" s="21"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="27" t="s">
+      <c r="A34" s="25"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="35" t="s">
+      <c r="F34" s="17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17">
-      <c r="A35" s="21"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D35" s="3">
         <v>32</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="35" t="s">
+      <c r="E35" s="11"/>
+      <c r="F35" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17">
-      <c r="A36" s="21"/>
-      <c r="B36" s="8"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D36" s="3">
         <v>32</v>
       </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="35" t="s">
+      <c r="E36" s="11"/>
+      <c r="F36" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" thickBot="1">
-      <c r="A37" s="22"/>
-      <c r="B37" s="16" t="s">
+      <c r="A37" s="26"/>
+      <c r="B37" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="8">
         <v>32</v>
       </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="36" t="s">
+      <c r="E37" s="12"/>
+      <c r="F37" s="18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="32">
         <v>3</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="34" t="s">
+      <c r="F38" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17">
-      <c r="A39" s="14"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="27" t="s">
+      <c r="A39" s="35"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17">
-      <c r="A40" s="14"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="27" t="s">
+      <c r="A40" s="35"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F40" s="35" t="s">
+      <c r="F40" s="17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17">
-      <c r="A41" s="14"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="27" t="s">
+      <c r="A41" s="35"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="35" t="s">
+      <c r="F41" s="17" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17">
-      <c r="A42" s="14"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="27" t="s">
+      <c r="A42" s="35"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F42" s="35" t="s">
+      <c r="F42" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17">
-      <c r="A43" s="14"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="27" t="s">
+      <c r="A43" s="35"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F43" s="35" t="s">
+      <c r="F43" s="17" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17">
-      <c r="A44" s="14"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="27" t="s">
+      <c r="A44" s="35"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F44" s="35" t="s">
+      <c r="F44" s="17" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17">
-      <c r="A45" s="14"/>
-      <c r="B45" s="4"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D45" s="3">
         <v>32</v>
       </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="35" t="s">
+      <c r="E45" s="11"/>
+      <c r="F45" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17">
-      <c r="A46" s="14"/>
-      <c r="B46" s="4"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D46" s="3">
         <v>32</v>
       </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="35" t="s">
+      <c r="E46" s="11"/>
+      <c r="F46" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18" thickBot="1">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16" t="s">
+      <c r="A47" s="36"/>
+      <c r="B47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="8">
         <v>32</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="36" t="s">
+      <c r="F47" s="18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="7">
         <v>32</v>
       </c>
-      <c r="E48" s="26"/>
-      <c r="F48" s="34" t="s">
+      <c r="E48" s="10"/>
+      <c r="F48" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17">
+      <c r="A49" s="25"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="27">
+        <v>4</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17">
+      <c r="A50" s="25"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17">
+      <c r="A51" s="25"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17">
+      <c r="A52" s="25"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17">
+      <c r="A53" s="25"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17">
+      <c r="A54" s="25"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="17">
+      <c r="A55" s="25"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="17">
+      <c r="A56" s="25"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="17">
+      <c r="A57" s="25"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="3">
+        <v>32</v>
+      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="17">
-      <c r="A49" s="21"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" s="6">
+    <row r="58" spans="1:6" ht="18" thickBot="1">
+      <c r="A58" s="26"/>
+      <c r="B58" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="8">
+        <v>32</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17">
+      <c r="A59" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="7">
+        <v>7</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17">
+      <c r="A60" s="25"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="3">
+        <v>10</v>
+      </c>
+      <c r="E60" s="11"/>
+      <c r="F60" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="17">
+      <c r="A61" s="25"/>
+      <c r="B61" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="3">
         <v>4</v>
       </c>
-      <c r="E49" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F49" s="35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="17">
-      <c r="A50" s="21"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F50" s="35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="17">
-      <c r="A51" s="21"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" s="35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="17">
-      <c r="A52" s="21"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="F52" s="35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="17">
-      <c r="A53" s="21"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F53" s="35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="17">
-      <c r="A54" s="21"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F54" s="35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="17">
-      <c r="A55" s="21"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F55" s="35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="17">
-      <c r="A56" s="21"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F56" s="35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="17">
-      <c r="A57" s="21"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="F57" s="35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="17">
-      <c r="A58" s="21"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" s="3">
-        <v>32</v>
-      </c>
-      <c r="E58" s="27"/>
-      <c r="F58" s="35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="18" thickBot="1">
-      <c r="A59" s="22"/>
-      <c r="B59" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="16">
-        <v>32</v>
-      </c>
-      <c r="E59" s="28"/>
-      <c r="F59" s="36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="17">
-      <c r="A60" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" s="17">
-        <v>7</v>
-      </c>
-      <c r="E60" s="26"/>
-      <c r="F60" s="34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="17">
-      <c r="A61" s="21"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61" s="3">
-        <v>10</v>
-      </c>
-      <c r="E61" s="27"/>
-      <c r="F61" s="35" t="s">
-        <v>32</v>
+      <c r="E61" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17">
-      <c r="A62" s="21"/>
-      <c r="B62" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A62" s="25"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D62" s="3">
         <v>4</v>
       </c>
-      <c r="E62" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="F62" s="35" t="s">
-        <v>108</v>
+      <c r="E62" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17">
-      <c r="A63" s="21"/>
-      <c r="B63" s="7"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D63" s="3">
-        <v>4</v>
-      </c>
-      <c r="E63" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F63" s="35" t="s">
+      <c r="F63" s="17" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17">
-      <c r="A64" s="21"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="3" t="s">
+      <c r="A64" s="25"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D64" s="3">
-        <v>3</v>
-      </c>
-      <c r="E64" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="F64" s="35" t="s">
+      <c r="D64" s="27">
+        <v>1</v>
+      </c>
+      <c r="E64" s="11">
+        <v>0</v>
+      </c>
+      <c r="F64" s="17" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17">
-      <c r="A65" s="21"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="6" t="s">
+      <c r="A65" s="25"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="11">
+        <v>1</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="17">
+      <c r="A66" s="25"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D66" s="27">
         <v>1</v>
       </c>
-      <c r="E65" s="27">
+      <c r="E66" s="11">
         <v>0</v>
       </c>
-      <c r="F65" s="35" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="17">
-      <c r="A66" s="21"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="27">
+      <c r="F66" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="17">
+      <c r="A67" s="25"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="11">
         <v>1</v>
       </c>
-      <c r="F66" s="35" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="17">
-      <c r="A67" s="21"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="6" t="s">
+      <c r="F67" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17">
+      <c r="A68" s="25"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D68" s="27">
         <v>1</v>
       </c>
-      <c r="E67" s="27">
+      <c r="E68" s="11">
         <v>0</v>
       </c>
-      <c r="F67" s="35" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="17">
-      <c r="A68" s="21"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="27">
+      <c r="F68" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="17">
+      <c r="A69" s="25"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="11">
         <v>1</v>
       </c>
-      <c r="F68" s="35" t="s">
+      <c r="F69" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="17">
+      <c r="A70" s="25"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70" s="27">
+        <v>1</v>
+      </c>
+      <c r="E70" s="11">
+        <v>0</v>
+      </c>
+      <c r="F70" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="17">
-      <c r="A69" s="21"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D69" s="6">
+    <row r="71" spans="1:6" ht="17">
+      <c r="A71" s="25"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="11">
         <v>1</v>
       </c>
-      <c r="E69" s="27">
+      <c r="F71" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="25"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D72" s="27">
+        <v>1</v>
+      </c>
+      <c r="E72" s="11">
         <v>0</v>
       </c>
-      <c r="F69" s="35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="17">
-      <c r="A70" s="21"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="27">
+      <c r="F72" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="25"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="11">
         <v>1</v>
       </c>
-      <c r="F70" s="35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="17">
-      <c r="A71" s="21"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D71" s="6">
+      <c r="F73" s="23"/>
+    </row>
+    <row r="74" spans="1:6" ht="17">
+      <c r="A74" s="25"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D74" s="27">
+        <v>2</v>
+      </c>
+      <c r="E74" s="11">
+        <v>0</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="34">
+      <c r="A75" s="25"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="11">
         <v>1</v>
       </c>
-      <c r="E71" s="27">
-        <v>0</v>
-      </c>
-      <c r="F71" s="35" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="17">
-      <c r="A72" s="21"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="27">
-        <v>1</v>
-      </c>
-      <c r="F72" s="35" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="21"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D73" s="6">
-        <v>1</v>
-      </c>
-      <c r="E73" s="27">
-        <v>0</v>
-      </c>
-      <c r="F73" s="37" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="21"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="27">
-        <v>1</v>
-      </c>
-      <c r="F74" s="38"/>
-    </row>
-    <row r="75" spans="1:6" ht="17">
-      <c r="A75" s="21"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D75" s="6">
+      <c r="F75" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="18" thickBot="1">
+      <c r="A76" s="26"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="12">
         <v>2</v>
       </c>
-      <c r="E75" s="27">
-        <v>0</v>
-      </c>
-      <c r="F75" s="35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="34">
-      <c r="A76" s="21"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="27">
-        <v>1</v>
-      </c>
-      <c r="F76" s="35" t="s">
+      <c r="F76" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="18" thickBot="1">
-      <c r="A77" s="22"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="28">
-        <v>2</v>
-      </c>
-      <c r="F77" s="36" t="s">
-        <v>133</v>
-      </c>
+    <row r="77" spans="1:6">
+      <c r="A77" s="6"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="19"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="11"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="39"/>
+      <c r="A78" s="1"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="20"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="40"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="20"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="40"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="20"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="40"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="20"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="40"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="20"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="40"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="20"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="40"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="20"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="40"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="20"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="40"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="20"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="40"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="20"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="40"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="20"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="40"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="20"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="40"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="20"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="40"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="20"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="40"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="20"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="40"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="20"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="40"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="20"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="40"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="20"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="40"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="20"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="40"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="20"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="40"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="20"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="40"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="20"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="40"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="20"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="40"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="20"/>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="40"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="20"/>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="40"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="20"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="40"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="20"/>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="40"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="20"/>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="40"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="20"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="40"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="20"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="40"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="20"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="40"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="20"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="40"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="20"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="40"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="20"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="40"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="20"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="40"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="20"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="40"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="20"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="40"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="20"/>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="40"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="20"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="40"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="20"/>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="40"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="20"/>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
-      <c r="E119" s="27"/>
-      <c r="F119" s="40"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="20"/>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="27"/>
-      <c r="F120" s="40"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="20"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="40"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="20"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="40"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="20"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
-      <c r="E123" s="27"/>
-      <c r="F123" s="40"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="20"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="27"/>
-      <c r="F124" s="40"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="20"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="40"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="20"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
-      <c r="E126" s="27"/>
-      <c r="F126" s="40"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="20"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
-      <c r="E127" s="27"/>
-      <c r="F127" s="40"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="20"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="40"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="20"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
-      <c r="E129" s="27"/>
-      <c r="F129" s="40"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="20"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="27"/>
-      <c r="F130" s="40"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="20"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
-      <c r="E131" s="27"/>
-      <c r="F131" s="40"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="20"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="40"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="20"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
-      <c r="E133" s="27"/>
-      <c r="F133" s="40"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="20"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
-      <c r="E134" s="27"/>
-      <c r="F134" s="40"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="20"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
-      <c r="E135" s="27"/>
-      <c r="F135" s="40"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="20"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
-      <c r="E136" s="27"/>
-      <c r="F136" s="40"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="20"/>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
-      <c r="E137" s="27"/>
-      <c r="F137" s="40"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="20"/>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
-      <c r="E138" s="27"/>
-      <c r="F138" s="40"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="20"/>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
-      <c r="E139" s="27"/>
-      <c r="F139" s="40"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="20"/>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
-      <c r="E140" s="27"/>
-      <c r="F140" s="40"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="20"/>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
-      <c r="E141" s="27"/>
-      <c r="F141" s="40"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="20"/>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="27"/>
-      <c r="F142" s="40"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="20"/>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
-      <c r="E143" s="27"/>
-      <c r="F143" s="40"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="20"/>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
-      <c r="E144" s="27"/>
-      <c r="F144" s="40"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="20"/>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
-      <c r="E145" s="27"/>
-      <c r="F145" s="40"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="20"/>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
-      <c r="E146" s="27"/>
-      <c r="F146" s="40"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="20"/>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
-      <c r="E147" s="27"/>
-      <c r="F147" s="40"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="20"/>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
-      <c r="E148" s="27"/>
-      <c r="F148" s="40"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="20"/>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
-      <c r="E149" s="27"/>
-      <c r="F149" s="40"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="20"/>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
-      <c r="E150" s="27"/>
-      <c r="F150" s="40"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="20"/>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
-      <c r="E151" s="27"/>
-      <c r="F151" s="40"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="20"/>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
-      <c r="E152" s="27"/>
-      <c r="F152" s="40"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="20"/>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
-      <c r="E153" s="27"/>
-      <c r="F153" s="40"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="20"/>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
-      <c r="E154" s="27"/>
-      <c r="F154" s="40"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="20"/>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
-      <c r="E155" s="27"/>
-      <c r="F155" s="40"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="20"/>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
-      <c r="E156" s="27"/>
-      <c r="F156" s="40"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="20"/>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
-      <c r="E157" s="27"/>
-      <c r="F157" s="40"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="20"/>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
-      <c r="E158" s="27"/>
-      <c r="F158" s="40"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="20"/>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
-      <c r="E159" s="27"/>
-      <c r="F159" s="40"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="20"/>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
-      <c r="E160" s="27"/>
-      <c r="F160" s="40"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="20"/>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
-      <c r="E161" s="27"/>
-      <c r="F161" s="40"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="20"/>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
-      <c r="E162" s="27"/>
-      <c r="F162" s="40"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="20"/>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
-      <c r="E163" s="27"/>
-      <c r="F163" s="40"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="20"/>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
-      <c r="E164" s="27"/>
-      <c r="F164" s="40"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="20"/>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
-      <c r="E165" s="27"/>
-      <c r="F165" s="40"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="20"/>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
-      <c r="E166" s="27"/>
-      <c r="F166" s="40"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="20"/>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
-      <c r="E167" s="27"/>
-      <c r="F167" s="40"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="20"/>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
-      <c r="E168" s="27"/>
-      <c r="F168" s="40"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="20"/>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
-      <c r="E169" s="27"/>
-      <c r="F169" s="40"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="20"/>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
-      <c r="E170" s="27"/>
-      <c r="F170" s="40"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="20"/>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
-      <c r="E171" s="27"/>
-      <c r="F171" s="40"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="20"/>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
-      <c r="E172" s="27"/>
-      <c r="F172" s="40"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="20"/>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
-      <c r="E173" s="27"/>
-      <c r="F173" s="40"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="20"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
-      <c r="E174" s="27"/>
-      <c r="F174" s="40"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="20"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
-      <c r="E175" s="27"/>
-      <c r="F175" s="40"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="20"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
-      <c r="E176" s="27"/>
-      <c r="F176" s="40"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="20"/>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
-      <c r="E177" s="27"/>
-      <c r="F177" s="40"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="20"/>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
-      <c r="E178" s="27"/>
-      <c r="F178" s="40"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="20"/>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
-      <c r="E179" s="27"/>
-      <c r="F179" s="40"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="20"/>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
-      <c r="E180" s="27"/>
-      <c r="F180" s="40"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="20"/>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
-      <c r="E181" s="27"/>
-      <c r="F181" s="40"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="20"/>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
-      <c r="E182" s="27"/>
-      <c r="F182" s="40"/>
+      <c r="E182" s="11"/>
+      <c r="F182" s="20"/>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
-      <c r="E183" s="27"/>
-      <c r="F183" s="40"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="20"/>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
-      <c r="E184" s="27"/>
-      <c r="F184" s="40"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="20"/>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
-      <c r="E185" s="27"/>
-      <c r="F185" s="40"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="20"/>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
-      <c r="E186" s="27"/>
-      <c r="F186" s="40"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="20"/>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
-      <c r="E187" s="27"/>
-      <c r="F187" s="40"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="20"/>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
-      <c r="E188" s="27"/>
-      <c r="F188" s="40"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="20"/>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
-      <c r="E189" s="27"/>
-      <c r="F189" s="40"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="20"/>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
-      <c r="E190" s="27"/>
-      <c r="F190" s="40"/>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191" s="1"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="27"/>
-      <c r="F191" s="40"/>
+      <c r="E190" s="11"/>
+      <c r="F190" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="A60:A77"/>
-    <mergeCell ref="B62:B77"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="D38:D44"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="A38:A47"/>
-    <mergeCell ref="C49:C57"/>
-    <mergeCell ref="D49:D57"/>
-    <mergeCell ref="A48:A59"/>
-    <mergeCell ref="B48:B58"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="C25:C34"/>
     <mergeCell ref="D25:D34"/>
     <mergeCell ref="A25:A37"/>
     <mergeCell ref="B25:B36"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="D38:D44"/>
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="C49:C56"/>
+    <mergeCell ref="D49:D56"/>
+    <mergeCell ref="A48:A58"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="A59:A76"/>
+    <mergeCell ref="B61:B76"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/模块接口文档.xlsx
+++ b/模块接口文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinglong/Public/project/研究生专业课/高级计算机体系结构/simple_RISC-V_prosscessor_implementation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409C1737-956F-9E4F-A055-4DF5EA45D514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335AEBE8-ED47-6C4F-A554-886A61D00C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7600" yWindow="500" windowWidth="28240" windowHeight="20140" xr2:uid="{58800DE4-B2CA-3B4D-85C0-0241760F255B}"/>
   </bookViews>
@@ -221,10 +221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>au</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>op</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,10 +329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3'b000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -566,6 +558,14 @@
   </si>
   <si>
     <t>以pc+4为rf din输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -949,50 +949,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1310,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C1A7A8-EE04-4544-946C-D1A007087DCB}">
   <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="190" workbookViewId="0">
-      <selection activeCell="F57" sqref="E57:F57"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="190" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1342,16 +1342,16 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="17">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="22">
         <v>1</v>
       </c>
       <c r="E2" s="10">
@@ -1362,10 +1362,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="17">
-      <c r="A3" s="35"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="11">
         <v>1</v>
       </c>
@@ -1374,8 +1374,8 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="35"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1388,7 +1388,7 @@
       <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" ht="17" thickBot="1">
-      <c r="A5" s="36"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
@@ -1404,7 +1404,7 @@
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1422,7 +1422,7 @@
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="17" thickBot="1">
-      <c r="A7" s="36"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1438,7 +1438,7 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" ht="17">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1456,7 +1456,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" thickBot="1">
-      <c r="A9" s="36"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
@@ -1472,7 +1472,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="30" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1490,7 +1490,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="17">
-      <c r="A11" s="25"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="27" t="s">
         <v>11</v>
       </c>
@@ -1506,7 +1506,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="17">
-      <c r="A12" s="25"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="28"/>
       <c r="C12" s="3" t="s">
         <v>26</v>
@@ -1520,7 +1520,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17">
-      <c r="A13" s="25"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="28"/>
       <c r="C13" s="3" t="s">
         <v>27</v>
@@ -1534,7 +1534,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="17">
-      <c r="A14" s="25"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="28"/>
       <c r="C14" s="3" t="s">
         <v>28</v>
@@ -1548,7 +1548,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="17">
-      <c r="A15" s="25"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="28"/>
       <c r="C15" s="3" t="s">
         <v>29</v>
@@ -1562,7 +1562,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" thickBot="1">
-      <c r="A16" s="26"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="29"/>
       <c r="C16" s="8" t="s">
         <v>30</v>
@@ -1576,10 +1576,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="33" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1594,7 +1594,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="17">
-      <c r="A18" s="25"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="28"/>
       <c r="C18" s="3" t="s">
         <v>28</v>
@@ -1608,7 +1608,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17">
-      <c r="A19" s="25"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="28"/>
       <c r="C19" s="3" t="s">
         <v>29</v>
@@ -1622,7 +1622,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="17">
-      <c r="A20" s="25"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="28"/>
       <c r="C20" s="27" t="s">
         <v>38</v>
@@ -1638,10 +1638,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="17">
-      <c r="A21" s="25"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="28"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="11">
         <v>1</v>
       </c>
@@ -1650,8 +1650,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="17">
-      <c r="A22" s="25"/>
-      <c r="B22" s="30"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
@@ -1664,7 +1664,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17">
-      <c r="A23" s="25"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="27" t="s">
         <v>11</v>
       </c>
@@ -1680,7 +1680,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" thickBot="1">
-      <c r="A24" s="26"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="29"/>
       <c r="C24" s="8" t="s">
         <v>40</v>
@@ -1694,320 +1694,320 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="17">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="31" t="s">
+      <c r="D25" s="33">
+        <v>4</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="31">
-        <v>4</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="F25" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17">
-      <c r="A26" s="25"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17">
-      <c r="A27" s="25"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
       <c r="E27" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17">
-      <c r="A28" s="25"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17">
-      <c r="A29" s="25"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17">
-      <c r="A30" s="25"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17">
-      <c r="A31" s="25"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17">
-      <c r="A32" s="25"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
       <c r="E32" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17">
-      <c r="A33" s="25"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
       <c r="E33" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17">
+      <c r="A34" s="31"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F34" s="17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17">
-      <c r="A34" s="25"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
     <row r="35" spans="1:6" ht="17">
-      <c r="A35" s="25"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="28"/>
       <c r="C35" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" s="3">
         <v>32</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17">
-      <c r="A36" s="25"/>
-      <c r="B36" s="30"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="3">
         <v>32</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" thickBot="1">
-      <c r="A37" s="26"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37" s="8">
         <v>32</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17">
+      <c r="A38" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="22">
+        <v>3</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="17">
-      <c r="A38" s="34" t="s">
+      <c r="F38" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17">
+      <c r="A39" s="25"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="32">
-        <v>3</v>
-      </c>
-      <c r="E38" s="10" t="s">
+      <c r="F39" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17">
+      <c r="A40" s="25"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F40" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17">
-      <c r="A39" s="35"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="11" t="s">
+    <row r="41" spans="1:6" ht="17">
+      <c r="A41" s="25"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F41" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17">
-      <c r="A40" s="35"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="11" t="s">
+    <row r="42" spans="1:6" ht="17">
+      <c r="A42" s="25"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F42" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17">
-      <c r="A41" s="35"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="11" t="s">
+    <row r="43" spans="1:6" ht="17">
+      <c r="A43" s="25"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F43" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17">
-      <c r="A42" s="35"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="11" t="s">
+    <row r="44" spans="1:6" ht="17">
+      <c r="A44" s="25"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F44" s="17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17">
-      <c r="A43" s="35"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="17">
-      <c r="A44" s="35"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
     <row r="45" spans="1:6" ht="17">
-      <c r="A45" s="35"/>
-      <c r="B45" s="33"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D45" s="3">
         <v>32</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17">
-      <c r="A46" s="35"/>
-      <c r="B46" s="33"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D46" s="3">
         <v>32</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18" thickBot="1">
-      <c r="A47" s="36"/>
+      <c r="A47" s="26"/>
       <c r="B47" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D47" s="8">
         <v>32</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17">
-      <c r="A48" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="31" t="s">
+      <c r="A48" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="33" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -2018,125 +2018,125 @@
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17">
-      <c r="A49" s="25"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="28"/>
       <c r="C49" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" s="27">
         <v>4</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17">
-      <c r="A50" s="25"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
       <c r="E50" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17">
-      <c r="A51" s="25"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
       <c r="D51" s="28"/>
       <c r="E51" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17">
-      <c r="A52" s="25"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
       <c r="D52" s="28"/>
       <c r="E52" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17">
-      <c r="A53" s="25"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
       <c r="D53" s="28"/>
       <c r="E53" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17">
-      <c r="A54" s="25"/>
+      <c r="A54" s="31"/>
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
       <c r="E54" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17">
-      <c r="A55" s="25"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
       <c r="E55" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17">
-      <c r="A56" s="25"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
       <c r="D56" s="28"/>
       <c r="E56" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17">
-      <c r="A57" s="25"/>
-      <c r="B57" s="30"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="34"/>
       <c r="C57" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D57" s="3">
         <v>32</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="18" thickBot="1">
-      <c r="A58" s="26"/>
+      <c r="A58" s="32"/>
       <c r="B58" s="8" t="s">
         <v>11</v>
       </c>
@@ -2148,14 +2148,14 @@
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17">
-      <c r="A59" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="B59" s="31" t="s">
+      <c r="A59" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="33" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="7" t="s">
@@ -2170,8 +2170,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="17">
-      <c r="A60" s="25"/>
-      <c r="B60" s="30"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="34"/>
       <c r="C60" s="3" t="s">
         <v>26</v>
       </c>
@@ -2184,60 +2184,60 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="17">
-      <c r="A61" s="25"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D61" s="3">
         <v>4</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17">
-      <c r="A62" s="25"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="28"/>
       <c r="C62" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D62" s="3">
         <v>4</v>
       </c>
       <c r="E62" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F62" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="F62" s="17" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="63" spans="1:6" ht="17">
-      <c r="A63" s="25"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="28"/>
       <c r="C63" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D63" s="3">
         <v>3</v>
       </c>
       <c r="E63" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="F63" s="17" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="64" spans="1:6" ht="17">
-      <c r="A64" s="25"/>
+      <c r="A64" s="31"/>
       <c r="B64" s="28"/>
       <c r="C64" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D64" s="27">
         <v>1</v>
@@ -2246,26 +2246,26 @@
         <v>0</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17">
-      <c r="A65" s="25"/>
+      <c r="A65" s="31"/>
       <c r="B65" s="28"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
       <c r="E65" s="11">
         <v>1</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17">
-      <c r="A66" s="25"/>
+      <c r="A66" s="31"/>
       <c r="B66" s="28"/>
       <c r="C66" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D66" s="27">
         <v>1</v>
@@ -2274,26 +2274,26 @@
         <v>0</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17">
-      <c r="A67" s="25"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="28"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
       <c r="E67" s="11">
         <v>1</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17">
-      <c r="A68" s="25"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="28"/>
       <c r="C68" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D68" s="27">
         <v>1</v>
@@ -2302,26 +2302,26 @@
         <v>0</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17">
-      <c r="A69" s="25"/>
+      <c r="A69" s="31"/>
       <c r="B69" s="28"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
       <c r="E69" s="11">
         <v>1</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17">
-      <c r="A70" s="25"/>
+      <c r="A70" s="31"/>
       <c r="B70" s="28"/>
       <c r="C70" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D70" s="27">
         <v>1</v>
@@ -2330,26 +2330,26 @@
         <v>0</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17">
-      <c r="A71" s="25"/>
+      <c r="A71" s="31"/>
       <c r="B71" s="28"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
       <c r="E71" s="11">
         <v>1</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="25"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="28"/>
       <c r="C72" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D72" s="27">
         <v>1</v>
@@ -2357,25 +2357,25 @@
       <c r="E72" s="11">
         <v>0</v>
       </c>
-      <c r="F72" s="22" t="s">
-        <v>129</v>
+      <c r="F72" s="35" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="25"/>
+      <c r="A73" s="31"/>
       <c r="B73" s="28"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
       <c r="E73" s="11">
         <v>1</v>
       </c>
-      <c r="F73" s="23"/>
+      <c r="F73" s="36"/>
     </row>
     <row r="74" spans="1:6" ht="17">
-      <c r="A74" s="25"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="28"/>
       <c r="C74" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D74" s="27">
         <v>2</v>
@@ -2384,11 +2384,11 @@
         <v>0</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="34">
-      <c r="A75" s="25"/>
+      <c r="A75" s="31"/>
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
       <c r="D75" s="28"/>
@@ -2396,11 +2396,11 @@
         <v>1</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="18" thickBot="1">
-      <c r="A76" s="26"/>
+      <c r="A76" s="32"/>
       <c r="B76" s="29"/>
       <c r="C76" s="29"/>
       <c r="D76" s="29"/>
@@ -2408,7 +2408,7 @@
         <v>2</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3325,31 +3325,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C25:C34"/>
-    <mergeCell ref="D25:D34"/>
-    <mergeCell ref="A25:A37"/>
-    <mergeCell ref="B25:B36"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="D38:D44"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="A38:A47"/>
-    <mergeCell ref="C49:C56"/>
-    <mergeCell ref="D49:D56"/>
-    <mergeCell ref="A48:A58"/>
-    <mergeCell ref="B48:B57"/>
     <mergeCell ref="F72:F73"/>
     <mergeCell ref="A59:A76"/>
     <mergeCell ref="B61:B76"/>
@@ -3366,6 +3341,31 @@
     <mergeCell ref="D66:D67"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="D68:D69"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="D38:D44"/>
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="C49:C56"/>
+    <mergeCell ref="D49:D56"/>
+    <mergeCell ref="A48:A58"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C25:C34"/>
+    <mergeCell ref="D25:D34"/>
+    <mergeCell ref="A25:A37"/>
+    <mergeCell ref="B25:B36"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
